--- a/data/InvoicePacking_Nipponika.xlsx
+++ b/data/InvoicePacking_Nipponika.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81904\Downloads\kristina\kristina_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD9ED20-0D07-443A-B366-A188F9C81DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D93E52-D16E-4892-A19F-C96240D0D9DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVOICE(without testers)" sheetId="10" r:id="rId1"/>
@@ -18,11 +18,13 @@
     <sheet name="Invoice-2 (TESTER)" sheetId="74" r:id="rId3"/>
     <sheet name="PL1" sheetId="68" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="75" r:id="rId5"/>
+    <sheet name="INVOICE(無償サンプル抜き価格)" sheetId="76" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'INVOICE(without testers)'!$A$17:$J$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'INVOICE(無償サンプル抜き価格)'!$A$17:$J$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'PL1'!$A$11:$Q$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'INVOICE(without testers)'!$A$1:$J$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'INVOICE(without testers)'!$A$1:$N$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'INVOICE(無償サンプル抜き価格)'!$A$1:$N$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Invoice-1 '!$A$1:$F$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Invoice-2 (TESTER)'!$A$1:$F$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'PL1'!$A$1:$M$14</definedName>
@@ -65,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="131">
   <si>
     <t>INVOICE</t>
     <phoneticPr fontId="5"/>
@@ -591,10 +593,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>RELENT</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>JAN</t>
   </si>
   <si>
@@ -603,10 +601,6 @@
   </si>
   <si>
     <t>Артикул</t>
-  </si>
-  <si>
-    <t>LAPIDEM</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -806,78 +800,12 @@
     <t>KS EURASIA Co.,Ltd.</t>
   </si>
   <si>
-    <t>Cosmetic Airbrush Set with Attached Regulator (Model RV-20)</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>13日納品C/S数</t>
-    <rPh sb="2" eb="3">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ノウヒン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>THE BANK OF TOKYO-MITSUBISHI UFJ, LTD.</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>16日納品C/S数</t>
-    <rPh sb="2" eb="3">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ノウヒン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>19日納品C/S数</t>
-    <rPh sb="2" eb="3">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ノウヒン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>21日納品C/S数</t>
-    <rPh sb="2" eb="3">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ノウヒン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>MARY PLATINUE</t>
-  </si>
-  <si>
-    <t>Be-10</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Payment Terms: 50% advance payment upon order confirmation, remaining 50% to be paid within 3 months from the date of shipment.</t>
     <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Freight</t>
   </si>
   <si>
     <r>
@@ -927,14 +855,140 @@
     </r>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>250701-MOS</t>
+  </si>
+  <si>
+    <t>Royal Cosmetics Co., Ltd.</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>119590 Moscow Mosfilmovskaya Street 70-6
+Russian Federation</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>7-925-505-3799</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>NET重量照合用</t>
+    <rPh sb="3" eb="5">
+      <t>ジュウリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Ner w/t product</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>tester</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TTL</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>PL</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>FLOUVEIL</t>
+  </si>
+  <si>
+    <t>RELENT</t>
+  </si>
+  <si>
+    <t>Q1st</t>
+  </si>
+  <si>
+    <t>HIMELABO</t>
+  </si>
+  <si>
+    <t>SUNSORIT</t>
+  </si>
+  <si>
+    <t>ELEGADOLL</t>
+  </si>
+  <si>
+    <t>MAYURI</t>
+  </si>
+  <si>
+    <t>ATMORE</t>
+  </si>
+  <si>
+    <t>DIME HEALTH CARE</t>
+  </si>
+  <si>
+    <t>LAPIDEM</t>
+  </si>
+  <si>
+    <t>ESTLABO</t>
+  </si>
+  <si>
+    <t>MEROS</t>
+  </si>
+  <si>
+    <t>COSMEPRO</t>
+  </si>
+  <si>
+    <t>AFURA</t>
+  </si>
+  <si>
+    <t>PECLIA</t>
+  </si>
+  <si>
+    <t>LEJEU</t>
+  </si>
+  <si>
+    <t>AISHODO</t>
+  </si>
+  <si>
+    <t>Dr.MEDION</t>
+  </si>
+  <si>
+    <t>McCoy</t>
+  </si>
+  <si>
+    <t>Luxces</t>
+  </si>
+  <si>
+    <t>Evliss</t>
+  </si>
+  <si>
+    <t>Esthe Pro Labo</t>
+  </si>
+  <si>
+    <t>COCOCHI</t>
+  </si>
+  <si>
+    <t>PURE BIO</t>
+  </si>
+  <si>
+    <t>DIAMANTE</t>
+  </si>
+  <si>
+    <t>TESTERS</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>THE BANK OF TOKYO-MITSUBISHI UFJ, LTD.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="24">
+  <numFmts count="23">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="\¥#,##0;[Red]&quot;¥-&quot;#,##0"/>
     <numFmt numFmtId="178" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
@@ -955,10 +1009,10 @@
     <numFmt numFmtId="193" formatCode="0.000_ "/>
     <numFmt numFmtId="194" formatCode="_-* #,##0.00\ _¥_-;\-* #,##0.00\ _¥_-;_-* &quot;-&quot;??\ _¥_-;_-@_-"/>
     <numFmt numFmtId="195" formatCode="_-* #,##0.000\ _¥_-;\-* #,##0.000\ _¥_-;_-* &quot;-&quot;??\ _¥_-;_-@_-"/>
-    <numFmt numFmtId="197" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;#,##0.00"/>
-    <numFmt numFmtId="198" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="196" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;#,##0.00"/>
+    <numFmt numFmtId="197" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="98">
+  <fonts count="97">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1551,12 +1605,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="HGGothicE"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <b/>
       <sz val="8"/>
       <color theme="1"/>
@@ -1580,18 +1628,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="BIZ UDMincho Medium"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="BIZ UDMincho Medium"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -1601,6 +1637,19 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="1"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="25">
@@ -1727,7 +1776,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="114">
+  <borders count="120">
     <border>
       <left/>
       <right/>
@@ -3196,6 +3245,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2637">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5902,7 +6025,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5931,9 +6054,6 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="55" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -5941,9 +6061,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="55" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="55" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -6052,9 +6169,6 @@
     <xf numFmtId="38" fontId="86" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="82" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6121,7 +6235,7 @@
     <xf numFmtId="182" fontId="80" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="197" fontId="80" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="196" fontId="80" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="58" applyFont="1"/>
     <xf numFmtId="0" fontId="80" fillId="0" borderId="110" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6143,12 +6257,6 @@
     <xf numFmtId="0" fontId="89" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="90" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="55" fillId="24" borderId="0" xfId="62" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -6189,13 +6297,13 @@
     <xf numFmtId="49" fontId="87" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="91" fillId="0" borderId="96" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="90" fillId="0" borderId="96" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="185" fontId="91" fillId="0" borderId="96" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="90" fillId="0" borderId="96" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="87" fillId="0" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6210,13 +6318,13 @@
     <xf numFmtId="188" fontId="87" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="91" fillId="0" borderId="86" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="90" fillId="0" borderId="86" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="92" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="91" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="187" fontId="87" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -6241,65 +6349,128 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="83" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="91" fillId="0" borderId="96" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="90" fillId="0" borderId="96" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="178" fontId="85" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="91" fillId="0" borderId="86" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="90" fillId="0" borderId="86" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="91" fillId="0" borderId="86" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="90" fillId="0" borderId="86" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="91" fillId="0" borderId="86" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="90" fillId="0" borderId="86" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="87" fillId="0" borderId="86" xfId="122" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="182" fontId="55" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="94" fillId="24" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="60" fillId="24" borderId="0" xfId="62" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="6" fontId="60" fillId="24" borderId="0" xfId="62" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="6" fontId="60" fillId="24" borderId="0" xfId="62" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="94" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="198" fontId="64" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="197" fontId="64" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="193" fontId="87" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="55" fillId="24" borderId="0" xfId="122" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="38" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="93" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="52" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="55" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="55" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="55" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="55" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="116" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="116" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="55" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="55" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="55" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="96" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="55" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="55" fillId="0" borderId="0" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="52" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="24" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="82" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -6312,16 +6483,10 @@
     <xf numFmtId="0" fontId="75" fillId="24" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="55" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="92" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -6354,28 +6519,10 @@
     <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="6" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="55" fillId="0" borderId="24" xfId="62" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="55" fillId="0" borderId="0" xfId="62" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="55" fillId="0" borderId="24" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="55" fillId="0" borderId="0" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="55" fillId="0" borderId="111" xfId="62" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="55" fillId="0" borderId="97" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="55" fillId="0" borderId="95" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
@@ -6396,37 +6543,40 @@
     <xf numFmtId="0" fontId="87" fillId="0" borderId="86" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="86" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="86" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="87" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="91" fillId="0" borderId="96" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="90" fillId="0" borderId="96" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="96" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="96" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="87" fillId="0" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="91" fillId="0" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="90" fillId="0" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="91" fillId="0" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="90" fillId="0" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="86" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="86" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="91" fillId="0" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="90" fillId="0" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="185" fontId="91" fillId="0" borderId="86" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="90" fillId="0" borderId="86" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="57" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="57" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -6441,8 +6591,11 @@
     <xf numFmtId="179" fontId="87" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="55" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2637">
@@ -9103,13 +9256,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>269875</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>1371</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9701,6 +9854,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>9308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B995ADE5-67C5-4C68-ACB3-57F2ED158371}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2873375" y="9872662"/>
+          <a:ext cx="2955925" cy="1357096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -9991,32 +10193,31 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.375" style="24"/>
-    <col min="3" max="3" width="10" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="0" style="24" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="9.375" style="24"/>
-    <col min="8" max="8" width="15.875" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="24"/>
-    <col min="10" max="10" width="10.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.75" style="24" customWidth="1"/>
-    <col min="12" max="16384" width="9.375" style="24"/>
+    <col min="1" max="2" width="9.375" style="22"/>
+    <col min="3" max="3" width="10" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="0" style="22" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="9.375" style="22"/>
+    <col min="8" max="8" width="15.875" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="22"/>
+    <col min="10" max="10" width="10.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.375" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="G1" s="195" t="s">
+      <c r="G1" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="195"/>
-      <c r="I1" s="195"/>
-      <c r="J1" s="195"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="4"/>
@@ -10025,34 +10226,34 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="212"/>
+      <c r="J2" s="212"/>
     </row>
     <row r="3" spans="1:10" ht="22.5">
-      <c r="A3" s="200" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="201"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
+      <c r="A3" s="214" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="215"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="215"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="22.5">
-      <c r="A4" s="201"/>
-      <c r="B4" s="201"/>
-      <c r="C4" s="201"/>
-      <c r="D4" s="201"/>
+      <c r="A4" s="215"/>
+      <c r="B4" s="215"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
       <c r="E4" s="5"/>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="202">
+      <c r="H4" s="216">
         <v>45777</v>
       </c>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
+      <c r="I4" s="216"/>
+      <c r="J4" s="216"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1">
       <c r="A5" s="6" t="s">
@@ -10064,122 +10265,136 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="22" t="s">
         <v>57</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="203" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6" s="204"/>
-      <c r="J6" s="204"/>
+      <c r="H6" s="217" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="218"/>
+      <c r="J6" s="218"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="205" t="s">
+      <c r="B8" s="219" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="205"/>
-      <c r="D8" s="205"/>
-      <c r="H8" s="206"/>
-      <c r="I8" s="206"/>
-      <c r="J8" s="206"/>
+      <c r="C8" s="219"/>
+      <c r="D8" s="219"/>
+      <c r="H8" s="220"/>
+      <c r="I8" s="220"/>
+      <c r="J8" s="220"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="G10" s="199" t="s">
+      <c r="G10" s="213" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="199"/>
-      <c r="I10" s="199"/>
-      <c r="J10" s="199"/>
+      <c r="H10" s="213"/>
+      <c r="I10" s="213"/>
+      <c r="J10" s="213"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="G11" s="208" t="s">
+      <c r="G11" s="222" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="208"/>
-      <c r="I11" s="208"/>
-      <c r="J11" s="208"/>
+      <c r="H11" s="222"/>
+      <c r="I11" s="222"/>
+      <c r="J11" s="222"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="G12" s="208"/>
-      <c r="H12" s="208"/>
-      <c r="I12" s="208"/>
-      <c r="J12" s="208"/>
+      <c r="G12" s="222"/>
+      <c r="H12" s="222"/>
+      <c r="I12" s="222"/>
+      <c r="J12" s="222"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="G13" s="208"/>
-      <c r="H13" s="208"/>
-      <c r="I13" s="208"/>
-      <c r="J13" s="208"/>
+      <c r="G13" s="222"/>
+      <c r="H13" s="222"/>
+      <c r="I13" s="222"/>
+      <c r="J13" s="222"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="207"/>
-      <c r="I14" s="207"/>
-      <c r="J14" s="207"/>
+      <c r="H14" s="221"/>
+      <c r="I14" s="221"/>
+      <c r="J14" s="221"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="H15" s="199"/>
-      <c r="I15" s="199"/>
-      <c r="J15" s="199"/>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A17" s="23" t="s">
+      <c r="H15" s="213"/>
+      <c r="I15" s="213"/>
+      <c r="J15" s="213"/>
+    </row>
+    <row r="16" spans="1:10" hidden="1">
+      <c r="A16" s="18"/>
+      <c r="B16" s="174"/>
+      <c r="C16" s="13" t="e">
+        <f>I16*0.9</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G16" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="80" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I16" s="223" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J16" s="224"/>
+    </row>
+    <row r="17" spans="1:14" ht="18.75" thickBot="1">
+      <c r="A17" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="197" t="s">
+      <c r="B17" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="198"/>
-      <c r="D17" s="198"/>
-      <c r="E17" s="198"/>
-      <c r="F17" s="198"/>
-      <c r="G17" s="198"/>
+      <c r="C17" s="206"/>
+      <c r="D17" s="206"/>
+      <c r="E17" s="206"/>
+      <c r="F17" s="206"/>
+      <c r="G17" s="206"/>
       <c r="H17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="197" t="s">
+      <c r="I17" s="205" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="198"/>
-      <c r="K17" s="179" t="s">
-        <v>95</v>
-      </c>
-      <c r="L17" s="179" t="s">
-        <v>97</v>
-      </c>
-      <c r="M17" s="179" t="s">
-        <v>98</v>
-      </c>
-      <c r="N17" s="179" t="s">
+      <c r="J17" s="206"/>
+      <c r="K17" s="207" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="L17" s="208"/>
+      <c r="M17" s="208"/>
+      <c r="N17" s="208"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="8"/>
       <c r="B18" s="1"/>
       <c r="C18" s="9"/>
@@ -10187,417 +10402,718 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="212"/>
-      <c r="J18" s="213"/>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="H18" s="181"/>
+      <c r="I18" s="225"/>
+      <c r="J18" s="226"/>
+      <c r="K18" s="181" t="s">
+        <v>100</v>
+      </c>
+      <c r="L18" s="178" t="s">
+        <v>101</v>
+      </c>
+      <c r="M18" s="181" t="s">
+        <v>102</v>
+      </c>
+      <c r="N18" s="182" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="8">
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="214"/>
-      <c r="J19" s="215"/>
-      <c r="K19" s="180">
-        <v>4</v>
-      </c>
-      <c r="N19" s="24">
-        <v>7</v>
-      </c>
-      <c r="O19" s="186">
-        <f>SUM(K19:N19)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="H19" s="183"/>
+      <c r="I19" s="201"/>
+      <c r="J19" s="202"/>
+      <c r="K19" s="183"/>
+      <c r="L19" s="178"/>
+      <c r="M19" s="183"/>
+      <c r="N19" s="184"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="8">
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="214"/>
-      <c r="J20" s="215"/>
-      <c r="K20" s="180">
-        <v>1</v>
-      </c>
-      <c r="M20" s="24">
-        <v>1</v>
-      </c>
-      <c r="O20" s="186">
-        <f t="shared" ref="O20:O26" si="0">SUM(K20:N20)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="H20" s="183"/>
+      <c r="I20" s="201"/>
+      <c r="J20" s="202"/>
+      <c r="K20" s="183"/>
+      <c r="L20" s="178"/>
+      <c r="M20" s="183"/>
+      <c r="N20" s="184"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="8">
         <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="214"/>
-      <c r="J21" s="215"/>
-      <c r="K21" s="180">
-        <v>9</v>
-      </c>
-      <c r="M21" s="24">
-        <v>3</v>
-      </c>
-      <c r="O21" s="186">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="H21" s="185"/>
+      <c r="I21" s="201"/>
+      <c r="J21" s="202"/>
+      <c r="K21" s="185"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="185"/>
+      <c r="N21" s="186"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="8">
         <v>4</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>90</v>
+      <c r="B22" s="187" t="s">
+        <v>106</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="214"/>
-      <c r="J22" s="215"/>
-      <c r="K22" s="180">
-        <v>5</v>
-      </c>
-      <c r="O22" s="186">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="H22" s="185"/>
+      <c r="I22" s="201"/>
+      <c r="J22" s="202"/>
+      <c r="K22" s="185"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="185"/>
+      <c r="N22" s="186"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="8">
         <v>5</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>101</v>
+      <c r="B23" s="187" t="s">
+        <v>107</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="214"/>
-      <c r="J23" s="215"/>
-      <c r="K23" s="180">
-        <v>2</v>
-      </c>
-      <c r="O23" s="186">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="H23" s="185"/>
+      <c r="I23" s="201"/>
+      <c r="J23" s="202"/>
+      <c r="K23" s="185"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="185"/>
+      <c r="N23" s="186"/>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="8">
         <v>6</v>
       </c>
-      <c r="B24" s="174" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="9"/>
+      <c r="B24" s="187" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="214"/>
-      <c r="J24" s="215"/>
-      <c r="K24" s="180"/>
-      <c r="L24" s="24">
-        <v>1</v>
-      </c>
-      <c r="O24" s="186">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="H24" s="185"/>
+      <c r="I24" s="201"/>
+      <c r="J24" s="202"/>
+      <c r="K24" s="185"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="185"/>
+      <c r="N24" s="186"/>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="8">
         <v>7</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="9"/>
+      <c r="B25" s="187" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="214"/>
-      <c r="J25" s="215"/>
-      <c r="K25" s="180">
-        <v>3</v>
-      </c>
-      <c r="L25" s="24">
-        <v>1</v>
-      </c>
-      <c r="O25" s="186">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A26" s="11">
+      <c r="H25" s="185"/>
+      <c r="I25" s="201"/>
+      <c r="J25" s="202"/>
+      <c r="K25" s="185"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="185"/>
+      <c r="N25" s="186"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="8">
         <v>8</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="217"/>
-      <c r="J26" s="218"/>
-      <c r="K26" s="180"/>
-      <c r="N26" s="24">
-        <v>1</v>
-      </c>
-      <c r="O26" s="186">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" thickTop="1">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="8"/>
+      <c r="B26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="185"/>
+      <c r="I26" s="201"/>
+      <c r="J26" s="202"/>
+      <c r="K26" s="185"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="185"/>
+      <c r="N26" s="186"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="8">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="9"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="9"/>
+      <c r="F27" s="8"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="190"/>
-      <c r="I27" s="216"/>
-      <c r="J27" s="216"/>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="182"/>
-      <c r="B28" s="183"/>
-      <c r="C28" s="83"/>
-      <c r="G28" s="190" t="s">
+      <c r="H27" s="185"/>
+      <c r="I27" s="201"/>
+      <c r="J27" s="202"/>
+      <c r="K27" s="185"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="185"/>
+      <c r="N27" s="186"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="8">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="185"/>
+      <c r="I28" s="201"/>
+      <c r="J28" s="202"/>
+      <c r="K28" s="185"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="185"/>
+      <c r="N28" s="186"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="8">
+        <v>11</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="185"/>
+      <c r="I29" s="201"/>
+      <c r="J29" s="202"/>
+      <c r="K29" s="185"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="185"/>
+      <c r="N29" s="186"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="8">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="201"/>
+      <c r="J30" s="202"/>
+      <c r="K30" s="185"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="185"/>
+      <c r="N30" s="186"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="8">
         <v>13</v>
       </c>
-      <c r="H28" s="190">
-        <f>SUM(H19:H26)</f>
+      <c r="B31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="185"/>
+      <c r="I31" s="201"/>
+      <c r="J31" s="202"/>
+      <c r="K31" s="185"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="185"/>
+      <c r="N31" s="186"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="8">
+        <v>14</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="185"/>
+      <c r="I32" s="201"/>
+      <c r="J32" s="202"/>
+      <c r="K32" s="185"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="185"/>
+      <c r="N32" s="186"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="8">
+        <v>15</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="185"/>
+      <c r="I33" s="203"/>
+      <c r="J33" s="204"/>
+      <c r="K33" s="185"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="185"/>
+      <c r="N33" s="186"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="8">
+        <v>16</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="185"/>
+      <c r="I34" s="203"/>
+      <c r="J34" s="204"/>
+      <c r="K34" s="185"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="185"/>
+      <c r="N34" s="186"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="8">
+        <v>17</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="185"/>
+      <c r="I35" s="203"/>
+      <c r="J35" s="204"/>
+      <c r="K35" s="185"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="185"/>
+      <c r="N35" s="186"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="8">
+        <v>18</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="188"/>
+      <c r="I36" s="203"/>
+      <c r="J36" s="204"/>
+      <c r="K36" s="188"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="188"/>
+      <c r="N36" s="189"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="8">
+        <v>19</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="188"/>
+      <c r="I37" s="203"/>
+      <c r="J37" s="204"/>
+      <c r="K37" s="188"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="188"/>
+      <c r="N37" s="189"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="8">
+        <v>20</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="188"/>
+      <c r="I38" s="203"/>
+      <c r="J38" s="204"/>
+      <c r="K38" s="188"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="188"/>
+      <c r="N38" s="189"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="8">
+        <v>21</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="188"/>
+      <c r="I39" s="203"/>
+      <c r="J39" s="204"/>
+      <c r="K39" s="188"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="188"/>
+      <c r="N39" s="189"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="8">
+        <v>22</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="188"/>
+      <c r="I40" s="201"/>
+      <c r="J40" s="202"/>
+      <c r="K40" s="188"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="188"/>
+      <c r="N40" s="189"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="8">
+        <v>23</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="188"/>
+      <c r="I41" s="201"/>
+      <c r="J41" s="202"/>
+      <c r="K41" s="188"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="188"/>
+      <c r="N41" s="189"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="8">
+        <v>24</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="188"/>
+      <c r="I42" s="201"/>
+      <c r="J42" s="202"/>
+      <c r="K42" s="188"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="188"/>
+      <c r="N42" s="189"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="8">
+        <v>25</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="183"/>
+      <c r="I43" s="201"/>
+      <c r="J43" s="202"/>
+      <c r="K43" s="183"/>
+      <c r="L43" s="178"/>
+      <c r="M43" s="183"/>
+      <c r="N43" s="184"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="8">
+        <v>26</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="183"/>
+      <c r="I44" s="201"/>
+      <c r="J44" s="202"/>
+      <c r="K44" s="183"/>
+      <c r="L44" s="178"/>
+      <c r="M44" s="183"/>
+      <c r="N44" s="184"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="8">
+        <v>27</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="183"/>
+      <c r="I45" s="201"/>
+      <c r="J45" s="202"/>
+      <c r="K45" s="183"/>
+      <c r="L45" s="178"/>
+      <c r="M45" s="183"/>
+      <c r="N45" s="184"/>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A46" s="10">
+        <v>28</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="190"/>
+      <c r="I46" s="196"/>
+      <c r="J46" s="197"/>
+      <c r="K46" s="190"/>
+      <c r="L46" s="191"/>
+      <c r="M46" s="190"/>
+      <c r="N46" s="192"/>
+    </row>
+    <row r="47" spans="1:14" ht="19.5" thickTop="1">
+      <c r="A47" s="8"/>
+      <c r="B47" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="178"/>
+      <c r="I47" s="198"/>
+      <c r="J47" s="198"/>
+      <c r="K47" s="193"/>
+      <c r="L47" s="193"/>
+      <c r="M47" s="193"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="8"/>
+      <c r="G48" s="194" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="195">
+        <f>SUM(H19:H47)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="211">
-        <f>SUM(I19:J27)</f>
+      <c r="I48" s="199">
+        <f>SUM(I19:J47)</f>
         <v>0</v>
       </c>
-      <c r="J28" s="207"/>
-      <c r="K28" s="181">
-        <f>SUM(K19:K26)</f>
-        <v>24</v>
-      </c>
-      <c r="L28" s="181">
-        <f>SUM(L19:L26)</f>
-        <v>2</v>
-      </c>
-      <c r="M28" s="181">
-        <f>SUM(M19:M26)</f>
-        <v>4</v>
-      </c>
-      <c r="N28" s="179">
-        <f>SUM(N18:N26)</f>
-        <v>8</v>
-      </c>
-      <c r="O28" s="186">
-        <f>SUM(K28:N28)</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" hidden="1">
-      <c r="A29" s="20"/>
-      <c r="B29" s="184"/>
-      <c r="C29" s="15" t="e">
-        <f>I29*0.9</f>
+      <c r="J48" s="200"/>
+      <c r="K48" s="173"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="209" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="209"/>
+      <c r="C49" s="209"/>
+      <c r="D49" s="209"/>
+      <c r="E49" s="209"/>
+      <c r="F49" s="209"/>
+      <c r="G49" s="209"/>
+      <c r="H49" s="209"/>
+      <c r="J49" s="179">
+        <v>-21600</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="18"/>
+      <c r="B50" s="175"/>
+      <c r="J50" s="180" t="e">
+        <f>#REF!+J49</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="81" t="s">
-        <v>75</v>
-      </c>
-      <c r="H29" s="82" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I29" s="209" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J29" s="210"/>
-      <c r="K29" s="15"/>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="193" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30" s="193"/>
-      <c r="C30" s="193"/>
-      <c r="D30" s="193"/>
-      <c r="E30" s="193"/>
-      <c r="F30" s="193"/>
-      <c r="G30" s="193"/>
-      <c r="H30" s="193"/>
-      <c r="J30" s="191">
-        <v>-21600</v>
-      </c>
-      <c r="K30" s="136"/>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="20"/>
-      <c r="B31" s="185"/>
-      <c r="J31" s="192">
-        <f>I28+J30</f>
-        <v>-21600</v>
-      </c>
-      <c r="K31" s="136"/>
-    </row>
-    <row r="32" spans="1:15" ht="18" customHeight="1">
-      <c r="B32" s="15"/>
-      <c r="G32" s="16" t="s">
+    </row>
+    <row r="51" spans="1:10" ht="18" customHeight="1">
+      <c r="B51" s="13"/>
+      <c r="G51" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="137">
-        <v>300000</v>
-      </c>
-      <c r="L32" s="24">
-        <f>630*305</f>
-        <v>192150</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="194" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33" s="194"/>
-      <c r="C33" s="194"/>
-      <c r="D33" s="194"/>
-      <c r="E33" s="194"/>
-      <c r="F33" s="194"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="189" t="e">
-        <f>K32/I28</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="194"/>
-      <c r="B34" s="194"/>
-      <c r="C34" s="194"/>
-      <c r="D34" s="194"/>
-      <c r="E34" s="194"/>
-      <c r="F34" s="194"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="15"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="194"/>
-      <c r="B35" s="194"/>
-      <c r="C35" s="194"/>
-      <c r="D35" s="194"/>
-      <c r="E35" s="194"/>
-      <c r="F35" s="194"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="18"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="194"/>
-      <c r="B36" s="194"/>
-      <c r="C36" s="194"/>
-      <c r="D36" s="194"/>
-      <c r="E36" s="194"/>
-      <c r="F36" s="194"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="18"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="20" t="s">
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="15"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="210" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="210"/>
+      <c r="C52" s="210"/>
+      <c r="D52" s="210"/>
+      <c r="E52" s="210"/>
+      <c r="F52" s="210"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="210"/>
+      <c r="B53" s="210"/>
+      <c r="C53" s="210"/>
+      <c r="D53" s="210"/>
+      <c r="E53" s="210"/>
+      <c r="F53" s="210"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="210"/>
+      <c r="B54" s="210"/>
+      <c r="C54" s="210"/>
+      <c r="D54" s="210"/>
+      <c r="E54" s="210"/>
+      <c r="F54" s="210"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="16"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="210"/>
+      <c r="B55" s="210"/>
+      <c r="C55" s="210"/>
+      <c r="D55" s="210"/>
+      <c r="E55" s="210"/>
+      <c r="F55" s="210"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="16"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="20" t="s">
+    <row r="57" spans="1:10">
+      <c r="A57" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="18" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A17:J17" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="1" showButton="0"/>
-    <filterColumn colId="2" showButton="0"/>
-    <filterColumn colId="3" showButton="0"/>
-    <filterColumn colId="4" showButton="0"/>
-    <filterColumn colId="5" showButton="0"/>
-    <filterColumn colId="8" showButton="0"/>
-  </autoFilter>
-  <mergeCells count="26">
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A33:F36"/>
+  <mergeCells count="47">
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A52:F55"/>
     <mergeCell ref="G1:J2"/>
-    <mergeCell ref="B17:G17"/>
     <mergeCell ref="H15:J15"/>
-    <mergeCell ref="I17:J17"/>
     <mergeCell ref="A3:D4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="H6:J6"/>
@@ -10606,12 +11122,45 @@
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="G11:J13"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -10630,267 +11179,264 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="27" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="10.375" style="27" customWidth="1"/>
-    <col min="4" max="4" width="14" style="27" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="90" customWidth="1"/>
-    <col min="6" max="6" width="22.375" style="90" customWidth="1"/>
-    <col min="7" max="9" width="16.375" style="90" customWidth="1"/>
-    <col min="10" max="10" width="23.625" style="30" customWidth="1"/>
-    <col min="11" max="11" width="13.625" style="27" customWidth="1"/>
-    <col min="12" max="12" width="15.875" style="27" customWidth="1"/>
-    <col min="13" max="13" width="19" style="27" customWidth="1"/>
-    <col min="14" max="14" width="18.625" style="27" customWidth="1"/>
-    <col min="15" max="15" width="2.375" style="27" customWidth="1"/>
-    <col min="16" max="16" width="19.875" style="27" customWidth="1"/>
-    <col min="17" max="17" width="19.375" style="27" customWidth="1"/>
-    <col min="18" max="22" width="16.375" style="27" customWidth="1"/>
-    <col min="23" max="28" width="2.375" style="27" customWidth="1"/>
-    <col min="29" max="29" width="9" style="27"/>
-    <col min="30" max="30" width="19.375" style="27" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="27"/>
+    <col min="1" max="1" width="10.375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="53.375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="25" customWidth="1"/>
+    <col min="4" max="4" width="14" style="25" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="87" customWidth="1"/>
+    <col min="6" max="6" width="22.375" style="87" customWidth="1"/>
+    <col min="7" max="9" width="16.375" style="87" customWidth="1"/>
+    <col min="10" max="10" width="23.625" style="28" customWidth="1"/>
+    <col min="11" max="11" width="13.625" style="25" customWidth="1"/>
+    <col min="12" max="12" width="15.875" style="25" customWidth="1"/>
+    <col min="13" max="13" width="19" style="25" customWidth="1"/>
+    <col min="14" max="14" width="18.625" style="25" customWidth="1"/>
+    <col min="15" max="15" width="2.375" style="25" customWidth="1"/>
+    <col min="16" max="16" width="19.875" style="25" customWidth="1"/>
+    <col min="17" max="17" width="19.375" style="25" customWidth="1"/>
+    <col min="18" max="22" width="16.375" style="25" customWidth="1"/>
+    <col min="23" max="28" width="2.375" style="25" customWidth="1"/>
+    <col min="29" max="29" width="9" style="25"/>
+    <col min="30" max="30" width="19.375" style="25" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="13.5" customHeight="1">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="227" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
     </row>
     <row r="2" spans="1:18" ht="13.5" customHeight="1">
-      <c r="A2" s="219"/>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
+      <c r="A2" s="227"/>
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="26" t="str" cm="1">
+      <c r="B3" s="24" t="str" cm="1">
         <f t="array" ref="B3:D3">'INVOICE(without testers)'!H6:J6</f>
         <v>2505D</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="25">
         <v>0</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="25">
         <v>0</v>
       </c>
-      <c r="F3" s="91" cm="1">
+      <c r="F3" s="88" cm="1">
         <f t="array" ref="F3:H3">'INVOICE(without testers)'!H4:J4</f>
         <v>45777</v>
       </c>
-      <c r="G3" s="91">
+      <c r="G3" s="88">
         <v>0</v>
       </c>
-      <c r="H3" s="91">
+      <c r="H3" s="88">
         <v>0</v>
       </c>
-      <c r="I3" s="91"/>
+      <c r="I3" s="88"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="94" t="s">
+      <c r="B4" s="90"/>
+      <c r="C4" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="93" t="s">
+      <c r="D4" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="95"/>
-      <c r="F4" s="96"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="93"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="26" t="s">
+      <c r="C5" s="95"/>
+      <c r="D5" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="26"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="98"/>
-      <c r="D6" s="27" t="s">
+      <c r="C6" s="95"/>
+      <c r="D6" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="101"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+      <c r="F6" s="98"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="108"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="105"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="98" t="s">
+      <c r="B9" s="107"/>
+      <c r="C9" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="101"/>
-      <c r="G9" s="27"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="111" t="s">
+      <c r="A10" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="105" t="s">
+      <c r="C10" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="106" t="s">
+      <c r="D10" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="107"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="27"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:18" ht="19.5">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="98" t="s">
+      <c r="B11" s="107"/>
+      <c r="C11" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="101"/>
+      <c r="F11" s="98"/>
     </row>
     <row r="12" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A12" s="113" t="s">
+      <c r="A12" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="28"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="130"/>
-      <c r="B13" s="118" t="s">
+      <c r="A13" s="127"/>
+      <c r="B13" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="118"/>
-      <c r="D13" s="119" t="s">
+      <c r="C13" s="115"/>
+      <c r="D13" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="120" t="s">
+      <c r="E13" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="131" t="s">
+      <c r="F13" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="128" t="s">
+      <c r="G13" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="121" t="s">
+      <c r="H13" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="87" t="s">
-        <v>82</v>
-      </c>
-      <c r="J13" s="122" t="s">
+      <c r="I13" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="119" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="K13" s="27" t="s">
+    </row>
+    <row r="14" spans="1:18" ht="23.25" thickBot="1">
+      <c r="A14" s="129"/>
+      <c r="B14" s="228" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="23.25" thickBot="1">
-      <c r="A14" s="132"/>
-      <c r="B14" s="220" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="220"/>
-      <c r="D14" s="135" t="e">
+      <c r="C14" s="228"/>
+      <c r="D14" s="132" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="E14" s="133"/>
-      <c r="F14" s="134" t="e">
+      <c r="E14" s="130"/>
+      <c r="F14" s="131" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G14" s="129"/>
-      <c r="H14" s="123" t="e">
+      <c r="G14" s="126"/>
+      <c r="H14" s="120" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I14" s="124"/>
-      <c r="J14" s="125"/>
-      <c r="M14" s="126"/>
-      <c r="R14" s="127"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="122"/>
+      <c r="M14" s="123"/>
+      <c r="R14" s="124"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="F16" s="171" t="e" cm="1">
-        <f t="array" ref="F16:G16">F14+'INVOICE(without testers)'!I27:J27</f>
+      <c r="F16" s="166" t="e" cm="1">
+        <f t="array" ref="F16">F14+'INVOICE(without testers)'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G16" s="90" t="e">
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="17" spans="6:7">
-      <c r="F17" s="90" t="e" cm="1">
+      <c r="F17" s="87" t="e" cm="1">
         <f t="array" ref="F17">F16+'INVOICE(without testers)'!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="6:7">
-      <c r="F19" s="173"/>
-      <c r="G19" s="28"/>
+      <c r="F19" s="168"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" spans="6:7">
-      <c r="G20" s="28"/>
+      <c r="G20" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10919,272 +11465,272 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="55.375" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="14" style="31" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="34" customWidth="1"/>
-    <col min="6" max="6" width="22.375" style="34" customWidth="1"/>
-    <col min="7" max="9" width="16.375" style="34" customWidth="1"/>
-    <col min="10" max="10" width="31.375" style="31" customWidth="1"/>
-    <col min="11" max="11" width="23.125" style="31" customWidth="1"/>
-    <col min="12" max="13" width="16.375" style="31" customWidth="1"/>
-    <col min="14" max="19" width="2.375" style="31" customWidth="1"/>
-    <col min="20" max="20" width="9" style="31"/>
-    <col min="21" max="21" width="19.375" style="31" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="31"/>
+    <col min="1" max="1" width="10.375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="55.375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="14" style="29" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="32" customWidth="1"/>
+    <col min="6" max="6" width="22.375" style="32" customWidth="1"/>
+    <col min="7" max="9" width="16.375" style="32" customWidth="1"/>
+    <col min="10" max="10" width="31.375" style="29" customWidth="1"/>
+    <col min="11" max="11" width="23.125" style="29" customWidth="1"/>
+    <col min="12" max="13" width="16.375" style="29" customWidth="1"/>
+    <col min="14" max="19" width="2.375" style="29" customWidth="1"/>
+    <col min="20" max="20" width="9" style="29"/>
+    <col min="21" max="21" width="19.375" style="29" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="229" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="221"/>
-      <c r="C1" s="221"/>
-      <c r="D1" s="221"/>
-      <c r="E1" s="221"/>
-      <c r="F1" s="221"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
     </row>
     <row r="2" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A2" s="221"/>
-      <c r="B2" s="221"/>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
+      <c r="A2" s="229"/>
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="33" t="str" cm="1">
+      <c r="B3" s="31" t="str" cm="1">
         <f t="array" ref="B3:D3">'INVOICE(without testers)'!H6:J6</f>
         <v>2505D</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="29">
         <v>0</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="29">
         <v>0</v>
       </c>
-      <c r="F3" s="35" cm="1">
+      <c r="F3" s="33" cm="1">
         <f t="array" ref="F3:H3">'INVOICE(without testers)'!H4:J4</f>
         <v>45777</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="33">
         <v>0</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="33">
         <v>0</v>
       </c>
-      <c r="I3" s="35"/>
+      <c r="I3" s="33"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="33" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="33"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="31"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="31" t="s">
+      <c r="C6" s="40"/>
+      <c r="D6" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
+      <c r="F6" s="43"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="42" t="s">
+      <c r="B9" s="54"/>
+      <c r="C9" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="31"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:11" ht="19.5">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="31"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:11" ht="19.5">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="42" t="s">
+      <c r="B11" s="54"/>
+      <c r="C11" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="45"/>
+      <c r="F11" s="43"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="65"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="63"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="19.5">
-      <c r="A13" s="66"/>
-      <c r="B13" s="67" t="s">
+      <c r="A13" s="64"/>
+      <c r="B13" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68" t="s">
+      <c r="C13" s="65"/>
+      <c r="D13" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="69" t="s">
+      <c r="E13" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="71" t="s">
+      <c r="G13" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="71" t="s">
+      <c r="H13" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="87" t="s">
-        <v>83</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="K13" s="31" t="s">
-        <v>79</v>
+      <c r="I13" s="84" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="23.25" thickBot="1">
-      <c r="A14" s="222" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="222"/>
-      <c r="C14" s="222"/>
-      <c r="D14" s="72" t="e">
+      <c r="A14" s="230" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="230"/>
+      <c r="C14" s="230"/>
+      <c r="D14" s="70" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="73" t="e">
+      <c r="F14" s="71" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74" t="e">
+      <c r="G14" s="72"/>
+      <c r="H14" s="72" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I14" s="85"/>
-      <c r="J14" s="27"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:11" ht="33" customHeight="1" thickTop="1">
-      <c r="A15" s="223" t="s">
+      <c r="A15" s="231" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="223"/>
-      <c r="C15" s="223"/>
-      <c r="D15" s="75" t="e">
+      <c r="B15" s="231"/>
+      <c r="C15" s="231"/>
+      <c r="D15" s="73" t="e">
         <f>'Invoice-1 '!D14+'Invoice-2 (TESTER)'!D14</f>
         <v>#REF!</v>
       </c>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76" t="e">
+      <c r="E15" s="74"/>
+      <c r="F15" s="74" t="e">
         <f>F14+'Invoice-1 '!F14</f>
         <v>#REF!</v>
       </c>
-      <c r="G15" s="77"/>
-      <c r="H15" s="78" t="e">
+      <c r="G15" s="75"/>
+      <c r="H15" s="76" t="e">
         <f>H14+'Invoice-1 '!H14</f>
         <v>#REF!</v>
       </c>
-      <c r="I15" s="86"/>
+      <c r="I15" s="83"/>
     </row>
     <row r="16" spans="1:11" ht="18.75">
-      <c r="D16" s="79"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="H16" s="187">
+      <c r="D16" s="77"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="H16" s="176">
         <v>226.85900000000001</v>
       </c>
     </row>
     <row r="17" spans="8:8">
-      <c r="H17" s="187" t="e">
+      <c r="H17" s="176" t="e">
         <f>H16-H15</f>
         <v>#REF!</v>
       </c>
@@ -11207,374 +11753,374 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="84" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:F14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="84" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="138" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="138" customWidth="1"/>
-    <col min="3" max="3" width="5.375" style="138" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="138" customWidth="1"/>
-    <col min="5" max="5" width="41.375" style="138" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="138" customWidth="1"/>
-    <col min="7" max="7" width="9" style="138"/>
-    <col min="8" max="8" width="9.375" style="138" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="138" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="138" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" style="138" customWidth="1"/>
-    <col min="12" max="12" width="10.875" style="138" customWidth="1"/>
-    <col min="13" max="13" width="13.375" style="138" customWidth="1"/>
-    <col min="14" max="14" width="7.125" style="138" customWidth="1"/>
-    <col min="15" max="15" width="16" style="138" customWidth="1"/>
-    <col min="16" max="16" width="21.375" style="170" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="138"/>
+    <col min="1" max="1" width="6.375" style="133" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="133" customWidth="1"/>
+    <col min="3" max="3" width="5.375" style="133" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="133" customWidth="1"/>
+    <col min="5" max="5" width="41.375" style="133" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="133" customWidth="1"/>
+    <col min="7" max="7" width="9" style="133"/>
+    <col min="8" max="8" width="9.375" style="133" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="133" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="133" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="133" customWidth="1"/>
+    <col min="12" max="12" width="10.875" style="133" customWidth="1"/>
+    <col min="13" max="13" width="13.375" style="133" customWidth="1"/>
+    <col min="14" max="14" width="7.125" style="133" customWidth="1"/>
+    <col min="15" max="15" width="16" style="133" customWidth="1"/>
+    <col min="16" max="16" width="21.375" style="165" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="133"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="244" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
+      <c r="H1" s="244"/>
+      <c r="I1" s="244"/>
+      <c r="J1" s="244"/>
+      <c r="K1" s="244"/>
+      <c r="L1" s="244"/>
+      <c r="M1" s="244"/>
     </row>
     <row r="2" spans="1:15" ht="20.25" customHeight="1">
-      <c r="A2" s="235"/>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="H2" s="235"/>
-      <c r="I2" s="235"/>
-      <c r="J2" s="235"/>
-      <c r="K2" s="235"/>
-      <c r="L2" s="235"/>
-      <c r="M2" s="235"/>
+      <c r="A2" s="244"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="244"/>
+      <c r="I2" s="244"/>
+      <c r="J2" s="244"/>
+      <c r="K2" s="244"/>
+      <c r="L2" s="244"/>
+      <c r="M2" s="244"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="235"/>
-      <c r="B3" s="235"/>
-      <c r="C3" s="235"/>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
-      <c r="F3" s="235"/>
-      <c r="G3" s="235"/>
-      <c r="H3" s="235"/>
-      <c r="I3" s="235"/>
-      <c r="J3" s="235"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="235"/>
-      <c r="M3" s="235"/>
+      <c r="A3" s="244"/>
+      <c r="B3" s="244"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="244"/>
+      <c r="H3" s="244"/>
+      <c r="I3" s="244"/>
+      <c r="J3" s="244"/>
+      <c r="K3" s="244"/>
+      <c r="L3" s="244"/>
+      <c r="M3" s="244"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="139"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="236"/>
-      <c r="K4" s="236"/>
-      <c r="L4" s="237"/>
-      <c r="M4" s="237"/>
+      <c r="A4" s="134"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="245"/>
+      <c r="K4" s="245"/>
+      <c r="L4" s="246"/>
+      <c r="M4" s="246"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="238" t="str">
+      <c r="B5" s="247" t="str">
         <f>'Invoice-1 '!B3</f>
         <v>2505D</v>
       </c>
-      <c r="C5" s="238"/>
-      <c r="D5" s="238"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="239"/>
-      <c r="L5" s="239"/>
-      <c r="M5" s="239"/>
+      <c r="C5" s="247"/>
+      <c r="D5" s="247"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="248"/>
+      <c r="L5" s="248"/>
+      <c r="M5" s="248"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="146"/>
-      <c r="B6" s="146"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="148"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="144"/>
-      <c r="M6" s="141"/>
+      <c r="A6" s="141"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="139"/>
+      <c r="L6" s="139"/>
+      <c r="M6" s="136"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="149" t="s">
+      <c r="A7" s="144" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="149"/>
-      <c r="C7" s="147"/>
-      <c r="D7" s="148"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="150"/>
-      <c r="K7" s="150"/>
-      <c r="L7" s="150"/>
-      <c r="M7" s="146"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="145"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="145"/>
+      <c r="M7" s="141"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="151"/>
-      <c r="B8" s="151"/>
-      <c r="C8" s="147" t="s">
+      <c r="A8" s="146"/>
+      <c r="B8" s="146"/>
+      <c r="C8" s="142" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="148"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="144"/>
-      <c r="G8" s="144"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="152"/>
-      <c r="K8" s="152"/>
-      <c r="L8" s="152"/>
-      <c r="M8" s="153"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="147"/>
+      <c r="K8" s="147"/>
+      <c r="L8" s="147"/>
+      <c r="M8" s="148"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="149"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="152"/>
-      <c r="K9" s="152"/>
-      <c r="L9" s="152"/>
-      <c r="M9" s="153"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="147"/>
+      <c r="K9" s="147"/>
+      <c r="L9" s="147"/>
+      <c r="M9" s="148"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="154"/>
-      <c r="B10" s="154"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="144"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="152"/>
-      <c r="K10" s="152"/>
-      <c r="L10" s="152"/>
-      <c r="M10" s="153"/>
+      <c r="A10" s="149"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="147"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="147"/>
+      <c r="M10" s="148"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="228" t="s">
+      <c r="A11" s="237" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="228"/>
-      <c r="C11" s="155" t="s">
+      <c r="B11" s="237"/>
+      <c r="C11" s="150" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="156" t="s">
+      <c r="D11" s="151" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="167"/>
+      <c r="F11" s="167"/>
+      <c r="G11" s="236" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="236"/>
+      <c r="I11" s="236" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="172"/>
-      <c r="F11" s="172"/>
-      <c r="G11" s="227" t="s">
+      <c r="J11" s="236"/>
+      <c r="K11" s="236"/>
+      <c r="L11" s="236" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="227"/>
-      <c r="I11" s="227" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11" s="227"/>
-      <c r="K11" s="227"/>
-      <c r="L11" s="227" t="s">
-        <v>87</v>
-      </c>
-      <c r="M11" s="227"/>
+      <c r="M11" s="236"/>
     </row>
     <row r="12" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A12" s="232" t="s">
+      <c r="A12" s="241" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="232" t="s">
+      <c r="B12" s="241" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="233" t="s">
+      <c r="C12" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="234" t="s">
+      <c r="D12" s="243" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="230" t="s">
+      <c r="E12" s="239" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="230" t="s">
+      <c r="F12" s="239" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="231" t="s">
+      <c r="G12" s="240" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="231"/>
-      <c r="I12" s="231" t="s">
+      <c r="H12" s="240"/>
+      <c r="I12" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="231"/>
-      <c r="K12" s="231"/>
-      <c r="L12" s="231" t="s">
+      <c r="J12" s="240"/>
+      <c r="K12" s="240"/>
+      <c r="L12" s="240" t="s">
         <v>45</v>
       </c>
-      <c r="M12" s="231"/>
-      <c r="N12" s="240" t="s">
+      <c r="M12" s="240"/>
+      <c r="N12" s="234" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="226" t="s">
+      <c r="O12" s="235" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A13" s="232"/>
-      <c r="B13" s="232"/>
-      <c r="C13" s="233"/>
-      <c r="D13" s="234"/>
-      <c r="E13" s="230"/>
-      <c r="F13" s="230"/>
-      <c r="G13" s="157" t="s">
+      <c r="A13" s="241"/>
+      <c r="B13" s="241"/>
+      <c r="C13" s="242"/>
+      <c r="D13" s="243"/>
+      <c r="E13" s="239"/>
+      <c r="F13" s="239"/>
+      <c r="G13" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="158" t="s">
+      <c r="H13" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="229" t="s">
+      <c r="I13" s="238" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="229"/>
-      <c r="K13" s="159" t="s">
+      <c r="J13" s="238"/>
+      <c r="K13" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="L13" s="157" t="s">
+      <c r="L13" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="M13" s="159" t="s">
+      <c r="M13" s="154" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="240"/>
-      <c r="O13" s="226"/>
+      <c r="N13" s="234"/>
+      <c r="O13" s="235"/>
     </row>
     <row r="14" spans="1:15" ht="24" customHeight="1">
-      <c r="A14" s="224"/>
-      <c r="B14" s="224"/>
-      <c r="C14" s="161" t="e">
+      <c r="A14" s="232"/>
+      <c r="B14" s="232"/>
+      <c r="C14" s="156" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="D14" s="161" t="e">
+      <c r="D14" s="156" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="E14" s="225" t="s">
+      <c r="E14" s="233" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="225"/>
-      <c r="G14" s="175"/>
-      <c r="H14" s="176" t="e">
+      <c r="F14" s="233"/>
+      <c r="G14" s="169"/>
+      <c r="H14" s="170" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I14" s="176"/>
-      <c r="J14" s="160"/>
-      <c r="K14" s="177" t="e">
+      <c r="I14" s="170"/>
+      <c r="J14" s="155"/>
+      <c r="K14" s="171" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="L14" s="178"/>
-      <c r="M14" s="177" t="e">
+      <c r="L14" s="172"/>
+      <c r="M14" s="171" t="e">
         <f>ROUND(SUM(#REF!),3)</f>
         <v>#REF!</v>
       </c>
-      <c r="N14" s="162"/>
-      <c r="O14" s="163" t="e">
+      <c r="N14" s="157"/>
+      <c r="O14" s="158" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="D15" s="164"/>
-      <c r="N15" s="162"/>
-      <c r="O15" s="162"/>
+      <c r="D15" s="159"/>
+      <c r="N15" s="157"/>
+      <c r="O15" s="157"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="D16" s="165" t="e">
+      <c r="D16" s="160" t="e">
         <f>D14-'Invoice-2 (TESTER)'!D15</f>
         <v>#REF!</v>
       </c>
-      <c r="H16" s="138">
+      <c r="H16" s="133">
         <v>2.5430000000000001</v>
       </c>
-      <c r="M16" s="169" t="e">
+      <c r="M16" s="164" t="e">
         <f>305-M14</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="8:14">
-      <c r="H17" s="188" t="e">
+      <c r="H17" s="177" t="e">
         <f>H16-H14</f>
         <v>#REF!</v>
       </c>
-      <c r="L17" s="166"/>
-      <c r="M17" s="138" t="e">
+      <c r="L17" s="161"/>
+      <c r="M17" s="133" t="e">
         <f>M16/38</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="8:14">
-      <c r="H18" s="138" t="e">
+      <c r="H18" s="133" t="e">
         <f>H17/38</f>
         <v>#REF!</v>
       </c>
-      <c r="L18" s="166"/>
+      <c r="L18" s="161"/>
     </row>
     <row r="19" spans="8:14">
-      <c r="L19" s="166"/>
-      <c r="N19" s="167"/>
+      <c r="L19" s="161"/>
+      <c r="N19" s="162"/>
     </row>
     <row r="20" spans="8:14">
-      <c r="L20" s="166"/>
-      <c r="N20" s="167"/>
+      <c r="L20" s="161"/>
+      <c r="N20" s="162"/>
     </row>
     <row r="21" spans="8:14">
-      <c r="L21" s="168"/>
+      <c r="L21" s="163"/>
     </row>
     <row r="35" spans="12:12">
-      <c r="L35" s="138" t="s">
+      <c r="L35" s="133" t="s">
         <v>72</v>
       </c>
     </row>
@@ -11587,11 +12133,15 @@
     <filterColumn colId="11" showButton="0"/>
   </autoFilter>
   <mergeCells count="23">
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
     <mergeCell ref="A1:M3"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="K5:M5"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="N12:N13"/>
     <mergeCell ref="O12:O13"/>
     <mergeCell ref="I11:K11"/>
@@ -11606,10 +12156,6 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11630,4 +12176,922 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5579CD1D-C8A4-4BF8-8C83-1AFC4DF712AE}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N58"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A24" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="9.375" style="22"/>
+    <col min="4" max="5" width="0" style="22" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="9.375" style="22"/>
+    <col min="8" max="8" width="15.875" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.375" style="22"/>
+    <col min="11" max="11" width="14.75" style="22" customWidth="1"/>
+    <col min="12" max="16384" width="9.375" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" customHeight="1">
+      <c r="G1" s="211" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="212"/>
+      <c r="J2" s="212"/>
+    </row>
+    <row r="3" spans="1:10" ht="22.5">
+      <c r="A3" s="250" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="250"/>
+      <c r="C3" s="250"/>
+      <c r="D3" s="250"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="22.5">
+      <c r="A4" s="215"/>
+      <c r="B4" s="215"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="5"/>
+      <c r="G4" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="216">
+        <v>45842</v>
+      </c>
+      <c r="I4" s="216"/>
+      <c r="J4" s="216"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A6" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="217" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="217"/>
+      <c r="J6" s="217"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="219" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="219"/>
+      <c r="D8" s="219"/>
+      <c r="H8" s="220"/>
+      <c r="I8" s="220"/>
+      <c r="J8" s="220"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="G9" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="G10" s="213" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="213"/>
+      <c r="I10" s="213"/>
+      <c r="J10" s="213"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1">
+      <c r="G11" s="249" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="249"/>
+      <c r="I11" s="249"/>
+      <c r="J11" s="249"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="G12" s="249"/>
+      <c r="H12" s="249"/>
+      <c r="I12" s="249"/>
+      <c r="J12" s="249"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="G13" s="249"/>
+      <c r="H13" s="249"/>
+      <c r="I13" s="249"/>
+      <c r="J13" s="249"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="G14" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="213" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="213"/>
+      <c r="J14" s="213"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="H15" s="213"/>
+      <c r="I15" s="213"/>
+      <c r="J15" s="213"/>
+    </row>
+    <row r="17" spans="1:14" ht="18.75" thickBot="1">
+      <c r="A17" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="205" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="206"/>
+      <c r="D17" s="206"/>
+      <c r="E17" s="206"/>
+      <c r="F17" s="206"/>
+      <c r="G17" s="206"/>
+      <c r="H17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="205" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="206"/>
+      <c r="K17" s="207" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="208"/>
+      <c r="M17" s="208"/>
+      <c r="N17" s="208"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="8"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="181"/>
+      <c r="I18" s="225"/>
+      <c r="J18" s="226"/>
+      <c r="K18" s="181" t="s">
+        <v>100</v>
+      </c>
+      <c r="L18" s="178" t="s">
+        <v>101</v>
+      </c>
+      <c r="M18" s="181" t="s">
+        <v>102</v>
+      </c>
+      <c r="N18" s="182" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="8">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="183"/>
+      <c r="I19" s="201"/>
+      <c r="J19" s="202"/>
+      <c r="K19" s="183"/>
+      <c r="L19" s="178"/>
+      <c r="M19" s="183"/>
+      <c r="N19" s="184"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="8">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="183"/>
+      <c r="I20" s="201"/>
+      <c r="J20" s="202"/>
+      <c r="K20" s="183"/>
+      <c r="L20" s="178"/>
+      <c r="M20" s="183"/>
+      <c r="N20" s="184"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="8">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="185"/>
+      <c r="I21" s="201"/>
+      <c r="J21" s="202"/>
+      <c r="K21" s="185"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="185"/>
+      <c r="N21" s="186"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="8">
+        <v>4</v>
+      </c>
+      <c r="B22" s="187" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="185"/>
+      <c r="I22" s="201"/>
+      <c r="J22" s="202"/>
+      <c r="K22" s="185"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="185"/>
+      <c r="N22" s="186"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="8">
+        <v>5</v>
+      </c>
+      <c r="B23" s="187" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="185"/>
+      <c r="I23" s="201"/>
+      <c r="J23" s="202"/>
+      <c r="K23" s="185"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="185"/>
+      <c r="N23" s="186"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="8">
+        <v>6</v>
+      </c>
+      <c r="B24" s="187" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="185"/>
+      <c r="I24" s="201"/>
+      <c r="J24" s="202"/>
+      <c r="K24" s="185"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="185"/>
+      <c r="N24" s="186"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="8">
+        <v>7</v>
+      </c>
+      <c r="B25" s="187" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="185"/>
+      <c r="I25" s="201"/>
+      <c r="J25" s="202"/>
+      <c r="K25" s="185"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="185"/>
+      <c r="N25" s="186"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="8">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="185"/>
+      <c r="I26" s="201"/>
+      <c r="J26" s="202"/>
+      <c r="K26" s="185"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="185"/>
+      <c r="N26" s="186"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="8">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="185"/>
+      <c r="I27" s="201"/>
+      <c r="J27" s="202"/>
+      <c r="K27" s="185"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="185"/>
+      <c r="N27" s="186"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="8">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="185"/>
+      <c r="I28" s="201"/>
+      <c r="J28" s="202"/>
+      <c r="K28" s="185"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="185"/>
+      <c r="N28" s="186"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="8">
+        <v>11</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="185"/>
+      <c r="I29" s="201"/>
+      <c r="J29" s="202"/>
+      <c r="K29" s="185"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="185"/>
+      <c r="N29" s="186"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="8">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="201"/>
+      <c r="J30" s="202"/>
+      <c r="K30" s="185"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="185"/>
+      <c r="N30" s="186"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="8">
+        <v>13</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="185"/>
+      <c r="I31" s="201"/>
+      <c r="J31" s="202"/>
+      <c r="K31" s="185"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="185"/>
+      <c r="N31" s="186"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="8">
+        <v>14</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="185"/>
+      <c r="I32" s="201"/>
+      <c r="J32" s="202"/>
+      <c r="K32" s="185"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="185"/>
+      <c r="N32" s="186"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="8">
+        <v>15</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="185"/>
+      <c r="I33" s="203"/>
+      <c r="J33" s="204"/>
+      <c r="K33" s="185"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="185"/>
+      <c r="N33" s="186"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="8">
+        <v>16</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="185"/>
+      <c r="I34" s="203"/>
+      <c r="J34" s="204"/>
+      <c r="K34" s="185"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="185"/>
+      <c r="N34" s="186"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="8">
+        <v>17</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="185"/>
+      <c r="I35" s="203"/>
+      <c r="J35" s="204"/>
+      <c r="K35" s="185"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="185"/>
+      <c r="N35" s="186"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="8">
+        <v>18</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="188"/>
+      <c r="I36" s="203"/>
+      <c r="J36" s="204"/>
+      <c r="K36" s="188"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="188"/>
+      <c r="N36" s="189"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="8">
+        <v>19</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="188"/>
+      <c r="I37" s="203"/>
+      <c r="J37" s="204"/>
+      <c r="K37" s="188"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="188"/>
+      <c r="N37" s="189"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="8">
+        <v>20</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="188"/>
+      <c r="I38" s="203"/>
+      <c r="J38" s="204"/>
+      <c r="K38" s="188"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="188"/>
+      <c r="N38" s="189"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="8">
+        <v>21</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="188"/>
+      <c r="I39" s="203"/>
+      <c r="J39" s="204"/>
+      <c r="K39" s="188"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="188"/>
+      <c r="N39" s="189"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="8">
+        <v>22</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="188"/>
+      <c r="I40" s="201"/>
+      <c r="J40" s="202"/>
+      <c r="K40" s="188"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="188"/>
+      <c r="N40" s="189"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="8">
+        <v>23</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="188"/>
+      <c r="I41" s="201"/>
+      <c r="J41" s="202"/>
+      <c r="K41" s="188"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="188"/>
+      <c r="N41" s="189"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="8">
+        <v>24</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="188"/>
+      <c r="I42" s="201"/>
+      <c r="J42" s="202"/>
+      <c r="K42" s="188"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="188"/>
+      <c r="N42" s="189"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="8">
+        <v>25</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="183"/>
+      <c r="I43" s="201"/>
+      <c r="J43" s="202"/>
+      <c r="K43" s="183"/>
+      <c r="L43" s="178"/>
+      <c r="M43" s="183"/>
+      <c r="N43" s="184"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="8">
+        <v>26</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="183"/>
+      <c r="I44" s="201"/>
+      <c r="J44" s="202"/>
+      <c r="K44" s="183"/>
+      <c r="L44" s="178"/>
+      <c r="M44" s="183"/>
+      <c r="N44" s="184"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="8">
+        <v>27</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="183"/>
+      <c r="I45" s="201"/>
+      <c r="J45" s="202"/>
+      <c r="K45" s="183"/>
+      <c r="L45" s="178"/>
+      <c r="M45" s="183"/>
+      <c r="N45" s="184"/>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A46" s="10">
+        <v>28</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="190"/>
+      <c r="I46" s="196"/>
+      <c r="J46" s="197"/>
+      <c r="K46" s="190"/>
+      <c r="L46" s="191"/>
+      <c r="M46" s="190"/>
+      <c r="N46" s="192"/>
+    </row>
+    <row r="47" spans="1:14" ht="19.5" thickTop="1">
+      <c r="A47" s="8"/>
+      <c r="B47" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="178"/>
+      <c r="I47" s="198"/>
+      <c r="J47" s="198"/>
+      <c r="K47" s="193"/>
+      <c r="L47" s="193"/>
+      <c r="M47" s="193"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="8"/>
+      <c r="G48" s="194" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="195">
+        <f>SUM(H19:H47)</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="199">
+        <f>SUM(I19:J47)</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="200"/>
+      <c r="K48" s="173"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="K49" s="173"/>
+    </row>
+    <row r="51" spans="1:11" ht="18" customHeight="1">
+      <c r="G51" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="15"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="G53" s="17"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="18"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="16"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="18"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="16"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A17:J17" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="1" showButton="0"/>
+    <filterColumn colId="2" showButton="0"/>
+    <filterColumn colId="3" showButton="0"/>
+    <filterColumn colId="4" showButton="0"/>
+    <filterColumn colId="5" showButton="0"/>
+    <filterColumn colId="8" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="44">
+    <mergeCell ref="G1:J2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="71" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>